--- a/Implementation Docs/Foods.xlsx
+++ b/Implementation Docs/Foods.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
   <si>
     <t>Food</t>
   </si>
@@ -425,7 +425,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J5" sqref="J5"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -599,6 +599,9 @@
       <c r="D10" t="s">
         <v>15</v>
       </c>
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
       <c r="F10" t="s">
         <v>18</v>
       </c>
@@ -614,6 +617,9 @@
         <v>3.6</v>
       </c>
       <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" t="s">
         <v>15</v>
       </c>
       <c r="F11" t="s">

--- a/Implementation Docs/Foods.xlsx
+++ b/Implementation Docs/Foods.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
   <si>
     <t>Food</t>
   </si>
@@ -425,7 +425,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -487,6 +487,12 @@
       <c r="D2" t="s">
         <v>15</v>
       </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">

--- a/Implementation Docs/Foods.xlsx
+++ b/Implementation Docs/Foods.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="22">
   <si>
     <t>Food</t>
   </si>
@@ -425,7 +425,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -493,6 +493,9 @@
       <c r="F2" t="s">
         <v>15</v>
       </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -505,6 +508,12 @@
         <v>12</v>
       </c>
       <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
         <v>15</v>
       </c>
     </row>

--- a/Implementation Docs/Foods.xlsx
+++ b/Implementation Docs/Foods.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="22">
   <si>
     <t>Food</t>
   </si>
@@ -425,7 +425,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -496,6 +496,9 @@
       <c r="G2" t="s">
         <v>15</v>
       </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -516,6 +519,12 @@
       <c r="F3" t="s">
         <v>15</v>
       </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -530,6 +539,18 @@
       <c r="D4" t="s">
         <v>15</v>
       </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -544,6 +565,18 @@
       <c r="D5" t="s">
         <v>15</v>
       </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -558,6 +591,18 @@
       <c r="D6" t="s">
         <v>15</v>
       </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -570,6 +615,18 @@
         <v>12</v>
       </c>
       <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" t="s">
         <v>15</v>
       </c>
     </row>
@@ -586,6 +643,18 @@
       <c r="D8" t="s">
         <v>15</v>
       </c>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -598,6 +667,18 @@
         <v>12</v>
       </c>
       <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" t="s">
         <v>15</v>
       </c>
     </row>
@@ -620,6 +701,12 @@
       <c r="F10" t="s">
         <v>18</v>
       </c>
+      <c r="G10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -639,6 +726,12 @@
       </c>
       <c r="F11" t="s">
         <v>18</v>
+      </c>
+      <c r="G11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Implementation Docs/Foods.xlsx
+++ b/Implementation Docs/Foods.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="22">
   <si>
     <t>Food</t>
   </si>
@@ -425,7 +425,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
+      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -522,6 +522,9 @@
       <c r="G3" t="s">
         <v>15</v>
       </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
       <c r="I3" t="s">
         <v>15</v>
       </c>
@@ -626,7 +629,13 @@
       <c r="G7" t="s">
         <v>15</v>
       </c>
+      <c r="H7" t="s">
+        <v>15</v>
+      </c>
       <c r="I7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" t="s">
         <v>15</v>
       </c>
     </row>

--- a/Implementation Docs/Foods.xlsx
+++ b/Implementation Docs/Foods.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="22">
   <si>
     <t>Food</t>
   </si>
@@ -142,6 +142,9 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J11" totalsRowShown="0">
   <autoFilter ref="A1:J11"/>
+  <sortState ref="A2:J11">
+    <sortCondition ref="A1:A11"/>
+  </sortState>
   <tableColumns count="10">
     <tableColumn id="1" name="Food"/>
     <tableColumn id="2" name="Hunger"/>
@@ -425,7 +428,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -476,13 +479,13 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C2">
-        <v>12</v>
+        <v>3.6</v>
       </c>
       <c r="D2" t="s">
         <v>15</v>
@@ -491,12 +494,18 @@
         <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
         <v>15</v>
       </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
       <c r="I2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -528,10 +537,13 @@
       <c r="I3" t="s">
         <v>15</v>
       </c>
+      <c r="J3" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>10</v>
@@ -551,13 +563,19 @@
       <c r="G4" t="s">
         <v>15</v>
       </c>
+      <c r="H4" t="s">
+        <v>15</v>
+      </c>
       <c r="I4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>10</v>
@@ -577,13 +595,19 @@
       <c r="G5" t="s">
         <v>15</v>
       </c>
+      <c r="H5" t="s">
+        <v>15</v>
+      </c>
       <c r="I5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B6">
         <v>10</v>
@@ -603,13 +627,19 @@
       <c r="G6" t="s">
         <v>15</v>
       </c>
+      <c r="H6" t="s">
+        <v>15</v>
+      </c>
       <c r="I6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7">
         <v>10</v>
@@ -641,7 +671,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B8">
         <v>10</v>
@@ -661,13 +691,19 @@
       <c r="G8" t="s">
         <v>15</v>
       </c>
+      <c r="H8" t="s">
+        <v>15</v>
+      </c>
       <c r="I8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>10</v>
@@ -687,7 +723,13 @@
       <c r="G9" t="s">
         <v>15</v>
       </c>
+      <c r="H9" t="s">
+        <v>15</v>
+      </c>
       <c r="I9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" t="s">
         <v>15</v>
       </c>
     </row>
@@ -713,19 +755,25 @@
       <c r="G10" t="s">
         <v>15</v>
       </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
       <c r="I10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B11">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C11">
-        <v>3.6</v>
+        <v>12</v>
       </c>
       <c r="D11" t="s">
         <v>15</v>
@@ -734,12 +782,18 @@
         <v>15</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G11" t="s">
         <v>15</v>
       </c>
+      <c r="H11" t="s">
+        <v>15</v>
+      </c>
       <c r="I11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" t="s">
         <v>15</v>
       </c>
     </row>
